--- a/src/assets/files/rating excel.xlsx
+++ b/src/assets/files/rating excel.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eyindia-my.sharepoint.com/personal/adarsh_verma1_in_ey_com/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eyindia-my.sharepoint.com/personal/manali_vaidya_in_ey_com/Documents/Desktop/Work/Insurance Internal Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31F639A8-7116-4E56-A25B-A0B073457CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AE4A08D-48D3-482F-A98A-76CB43D6C014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D0B68395-36D1-4640-AEA9-9FEF330F76C9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9B870B2F-FD48-41E7-BAEE-24FE4962C112}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,9 +36,244 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="76">
+  <si>
+    <t>Entry Age</t>
+  </si>
+  <si>
+    <t>Max Age</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Smoker</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>Are Rates same for all Genders</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Are Rates same for Somker</t>
+  </si>
+  <si>
+    <t>Rate Upload</t>
+  </si>
+  <si>
+    <t>xlsx</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Save as Draft</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Grey out untill all combinitions are received</t>
+  </si>
+  <si>
+    <t>Uploaded Rates List</t>
+  </si>
+  <si>
+    <t>Total Count</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Call to action</t>
+  </si>
+  <si>
+    <t>[View Input]
+[View Output]</t>
+  </si>
+  <si>
+    <t>12 V2
+6 V1</t>
+  </si>
+  <si>
+    <t>Possible Combinitions</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Download</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Uploaded By</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Sheet1</t>
+  </si>
+  <si>
+    <t>Sheet2</t>
+  </si>
+  <si>
+    <t>Non -Smoker</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Sheet3</t>
+  </si>
+  <si>
+    <t>Sheet4</t>
+  </si>
+  <si>
+    <t>Transgender</t>
+  </si>
+  <si>
+    <t>Sheet5</t>
+  </si>
+  <si>
+    <t>Sheet6</t>
+  </si>
+  <si>
+    <t>Coverage Code</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Yearly</t>
+  </si>
+  <si>
+    <t>Half Yearly</t>
+  </si>
+  <si>
+    <t>Min Age</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min Prem</t>
+  </si>
+  <si>
+    <t>Max Premium</t>
+  </si>
+  <si>
+    <t>Min Sa</t>
+  </si>
+  <si>
+    <t>Max Sa</t>
+  </si>
+  <si>
+    <t>Mnth</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Rider</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>Riders</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>Page1</t>
+  </si>
+  <si>
+    <t>Factors for Rate Table Combinatiosn</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submit  Product </t>
+  </si>
+  <si>
+    <t>[View Input]- Shows the doc version which is uploaded by the user.</t>
+  </si>
+  <si>
+    <t>[View Output]- Doc which shows the errros found in user's input</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +281,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -62,12 +342,383 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,13 +1052,1198 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D3A33A-2B14-4445-BD82-096DE206F590}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157FD5B0-30C0-44FC-AB26-8C381430B111}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.54296875" customWidth="1"/>
+    <col min="12" max="12" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.81640625" customWidth="1"/>
+    <col min="16" max="16" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="S1" s="39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="3"/>
+      <c r="O2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2">
+        <v>10</v>
+      </c>
+      <c r="V2">
+        <v>11</v>
+      </c>
+      <c r="W2">
+        <v>12</v>
+      </c>
+      <c r="X2">
+        <v>13</v>
+      </c>
+      <c r="Y2">
+        <v>14</v>
+      </c>
+      <c r="Z2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="6"/>
+      <c r="P3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3">
+        <v>18</v>
+      </c>
+      <c r="U3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="6"/>
+      <c r="P4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4">
+        <v>19</v>
+      </c>
+      <c r="U4" t="s">
+        <v>17</v>
+      </c>
+      <c r="V4" t="s">
+        <v>17</v>
+      </c>
+      <c r="W4" t="s">
+        <v>17</v>
+      </c>
+      <c r="X4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="6"/>
+      <c r="Q5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5">
+        <v>20</v>
+      </c>
+      <c r="U5" t="s">
+        <v>17</v>
+      </c>
+      <c r="V5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W5" t="s">
+        <v>17</v>
+      </c>
+      <c r="X5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A6" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="6"/>
+      <c r="S8" t="s">
+        <v>37</v>
+      </c>
+      <c r="U8">
+        <v>10</v>
+      </c>
+      <c r="V8">
+        <v>11</v>
+      </c>
+      <c r="W8">
+        <v>12</v>
+      </c>
+      <c r="X8">
+        <v>13</v>
+      </c>
+      <c r="Y8">
+        <v>14</v>
+      </c>
+      <c r="Z8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="6"/>
+      <c r="S9" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9">
+        <v>18</v>
+      </c>
+      <c r="U9" t="s">
+        <v>7</v>
+      </c>
+      <c r="V9" t="s">
+        <v>17</v>
+      </c>
+      <c r="W9" t="s">
+        <v>17</v>
+      </c>
+      <c r="X9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="6"/>
+      <c r="S10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10">
+        <v>19</v>
+      </c>
+      <c r="U10" t="s">
+        <v>17</v>
+      </c>
+      <c r="V10" t="s">
+        <v>17</v>
+      </c>
+      <c r="W10" t="s">
+        <v>17</v>
+      </c>
+      <c r="X10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6"/>
+      <c r="T11">
+        <v>20</v>
+      </c>
+      <c r="U11" t="s">
+        <v>17</v>
+      </c>
+      <c r="V11" t="s">
+        <v>17</v>
+      </c>
+      <c r="W11" t="s">
+        <v>17</v>
+      </c>
+      <c r="X11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="6"/>
+      <c r="S13" t="s">
+        <v>41</v>
+      </c>
+      <c r="U13">
+        <v>10</v>
+      </c>
+      <c r="V13">
+        <v>11</v>
+      </c>
+      <c r="W13">
+        <v>12</v>
+      </c>
+      <c r="X13">
+        <v>13</v>
+      </c>
+      <c r="Y13">
+        <v>14</v>
+      </c>
+      <c r="Z13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="33"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="S14" t="s">
+        <v>6</v>
+      </c>
+      <c r="T14">
+        <v>18</v>
+      </c>
+      <c r="U14" t="s">
+        <v>7</v>
+      </c>
+      <c r="V14" t="s">
+        <v>17</v>
+      </c>
+      <c r="W14" t="s">
+        <v>17</v>
+      </c>
+      <c r="X14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="4">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="21">
+        <v>108</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="S15" t="s">
+        <v>40</v>
+      </c>
+      <c r="T15">
+        <v>19</v>
+      </c>
+      <c r="U15" t="s">
+        <v>17</v>
+      </c>
+      <c r="V15" t="s">
+        <v>17</v>
+      </c>
+      <c r="W15" t="s">
+        <v>17</v>
+      </c>
+      <c r="X15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="4">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="T16">
+        <v>20</v>
+      </c>
+      <c r="U16" t="s">
+        <v>17</v>
+      </c>
+      <c r="V16" t="s">
+        <v>17</v>
+      </c>
+      <c r="W16" t="s">
+        <v>17</v>
+      </c>
+      <c r="X16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="4">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5">
+        <v>13</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="38"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+    </row>
+    <row r="18" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5">
+        <v>14</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="15">
+        <v>1</v>
+      </c>
+      <c r="H18" s="12">
+        <v>18</v>
+      </c>
+      <c r="I18" s="12">
+        <v>12</v>
+      </c>
+      <c r="J18" s="12">
+        <v>6</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="12"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="1:26" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B19" s="8">
+        <v>15</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="14">
+        <v>2</v>
+      </c>
+      <c r="H19" s="10">
+        <v>18</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="10">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="10"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="S19" t="s">
+        <v>42</v>
+      </c>
+      <c r="U19">
+        <v>10</v>
+      </c>
+      <c r="V19">
+        <v>11</v>
+      </c>
+      <c r="W19">
+        <v>12</v>
+      </c>
+      <c r="X19">
+        <v>13</v>
+      </c>
+      <c r="Y19">
+        <v>14</v>
+      </c>
+      <c r="Z19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="14">
+        <v>3</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="S20" t="s">
+        <v>38</v>
+      </c>
+      <c r="T20">
+        <v>18</v>
+      </c>
+      <c r="U20" t="s">
+        <v>7</v>
+      </c>
+      <c r="V20" t="s">
+        <v>17</v>
+      </c>
+      <c r="W20" t="s">
+        <v>17</v>
+      </c>
+      <c r="X20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F21" s="4"/>
+      <c r="G21" s="18">
+        <v>4</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="S21" t="s">
+        <v>40</v>
+      </c>
+      <c r="T21">
+        <v>19</v>
+      </c>
+      <c r="U21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V21" t="s">
+        <v>17</v>
+      </c>
+      <c r="W21" t="s">
+        <v>17</v>
+      </c>
+      <c r="X21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="6"/>
+      <c r="T22">
+        <v>20</v>
+      </c>
+      <c r="U22" t="s">
+        <v>17</v>
+      </c>
+      <c r="V22" t="s">
+        <v>17</v>
+      </c>
+      <c r="W22" t="s">
+        <v>17</v>
+      </c>
+      <c r="X22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F24" s="4"/>
+      <c r="G24" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="6"/>
+      <c r="S25" t="s">
+        <v>44</v>
+      </c>
+      <c r="U25">
+        <v>10</v>
+      </c>
+      <c r="V25">
+        <v>11</v>
+      </c>
+      <c r="W25">
+        <v>12</v>
+      </c>
+      <c r="X25">
+        <v>13</v>
+      </c>
+      <c r="Y25">
+        <v>14</v>
+      </c>
+      <c r="Z25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="6"/>
+      <c r="S26" t="s">
+        <v>6</v>
+      </c>
+      <c r="T26">
+        <v>18</v>
+      </c>
+      <c r="U26" t="s">
+        <v>7</v>
+      </c>
+      <c r="V26" t="s">
+        <v>17</v>
+      </c>
+      <c r="W26" t="s">
+        <v>17</v>
+      </c>
+      <c r="X26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="9"/>
+      <c r="S27" t="s">
+        <v>43</v>
+      </c>
+      <c r="T27">
+        <v>19</v>
+      </c>
+      <c r="U27" t="s">
+        <v>17</v>
+      </c>
+      <c r="V27" t="s">
+        <v>17</v>
+      </c>
+      <c r="W27" t="s">
+        <v>17</v>
+      </c>
+      <c r="X27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="T28">
+        <v>20</v>
+      </c>
+      <c r="U28" t="s">
+        <v>17</v>
+      </c>
+      <c r="V28" t="s">
+        <v>17</v>
+      </c>
+      <c r="W28" t="s">
+        <v>17</v>
+      </c>
+      <c r="X28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="G30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="G31" t="s">
+        <v>75</v>
+      </c>
+      <c r="S31" t="s">
+        <v>45</v>
+      </c>
+      <c r="U31">
+        <v>10</v>
+      </c>
+      <c r="V31">
+        <v>11</v>
+      </c>
+      <c r="W31">
+        <v>12</v>
+      </c>
+      <c r="X31">
+        <v>13</v>
+      </c>
+      <c r="Y31">
+        <v>14</v>
+      </c>
+      <c r="Z31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="S32" t="s">
+        <v>38</v>
+      </c>
+      <c r="T32">
+        <v>18</v>
+      </c>
+      <c r="U32" t="s">
+        <v>7</v>
+      </c>
+      <c r="V32" t="s">
+        <v>17</v>
+      </c>
+      <c r="W32" t="s">
+        <v>17</v>
+      </c>
+      <c r="X32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="19:24" x14ac:dyDescent="0.35">
+      <c r="S33" t="s">
+        <v>43</v>
+      </c>
+      <c r="T33">
+        <v>19</v>
+      </c>
+      <c r="U33" t="s">
+        <v>17</v>
+      </c>
+      <c r="V33" t="s">
+        <v>17</v>
+      </c>
+      <c r="W33" t="s">
+        <v>17</v>
+      </c>
+      <c r="X33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="19:24" x14ac:dyDescent="0.35">
+      <c r="T34">
+        <v>20</v>
+      </c>
+      <c r="U34" t="s">
+        <v>17</v>
+      </c>
+      <c r="V34" t="s">
+        <v>17</v>
+      </c>
+      <c r="W34" t="s">
+        <v>17</v>
+      </c>
+      <c r="X34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3773DC07-222C-4C42-8228-655BF9F2D92C}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:U19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5">
+        <v>18</v>
+      </c>
+      <c r="M5">
+        <v>60</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>70</v>
+      </c>
+      <c r="U5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9">
+        <v>18000</v>
+      </c>
+      <c r="I9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="J10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="J11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="I12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="J13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="J14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15">
+        <v>9000</v>
+      </c>
+      <c r="I15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="J16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19">
+        <v>1500</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>